--- a/wiki/data/pages/wiki(2f)jjy(2f)trantor(2f)jjy(2f)branches(2f)2107(2f)sync_jda/attachments/new_data_from_jda.xlsx
+++ b/wiki/data/pages/wiki(2f)jjy(2f)trantor(2f)jjy(2f)branches(2f)2107(2f)sync_jda/attachments/new_data_from_jda.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desktop\需求提报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D0EA4F-E6D2-4A7C-9545-DE7385D451DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="27990" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="23280" windowHeight="10770"/>
   </bookViews>
   <sheets>
     <sheet name="OUT_PLANARRIVAL_STORE" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'[1]接口表表头模板：DFUView+SKU'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OUT_PLANARRIVAL_STORE!$A$2:$AN$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'[1]接口表表头模板：DFUView+SKU'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'[1]接口表表头模板：DFUView+SKU'!#REF!</definedName>
   </definedNames>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="194">
   <si>
     <t>接口表内容定义</t>
   </si>
@@ -263,10 +257,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SCHEDARRIVDATE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>计划到达日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -300,10 +290,6 @@
   </si>
   <si>
     <t>直送、配送模式下该字段为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_TRANSLOCSCHEDARRIVALDATE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -336,19 +322,394 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>U_OUTPUT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出标示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>可输出部分为1
 本次项目一直都是1。这个字段是保留了未来系统的扩展性，1表示当前场次下单的补货建议，0表示远期的计划。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>U_PROMO_FLAG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是促销商品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_PLANARRIVAL_TYPE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_SPEC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品规格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_UOM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本计量单位编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_UOM_DESCR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本计量单位名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_PACKNUMBER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大箱包数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>U_MINSHIPNUMBER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小要货量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_OHINVENTORY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前库存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_VEHICLELOADLINE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在途库存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_PROMO_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际档期编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则待定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDA提供</t>
+  </si>
+  <si>
+    <t>行号</t>
+  </si>
+  <si>
+    <t>中类名称</t>
+  </si>
+  <si>
+    <t>小类名称</t>
+  </si>
+  <si>
+    <t>需求提报</t>
+  </si>
+  <si>
+    <t>是否允许修改</t>
+  </si>
+  <si>
+    <t>商品编码</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>条形码</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>基本单位</t>
+  </si>
+  <si>
+    <t>最小要货量</t>
+  </si>
+  <si>
+    <t>箱包数</t>
+  </si>
+  <si>
+    <t>未来1周门店预估销售量</t>
+  </si>
+  <si>
+    <t>建议数量</t>
+  </si>
+  <si>
+    <t>目前库存</t>
+  </si>
+  <si>
+    <t>在途库存</t>
+  </si>
+  <si>
+    <t>预期可售天数</t>
+  </si>
+  <si>
+    <t>已提交数量</t>
+  </si>
+  <si>
+    <t>待提交数量</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>明日促销分类</t>
+  </si>
+  <si>
+    <t>正常日均销量</t>
+  </si>
+  <si>
+    <t>促销日均销量</t>
+  </si>
+  <si>
+    <t>本期昨日销量</t>
+  </si>
+  <si>
+    <t>是否80商品</t>
+  </si>
+  <si>
+    <t>应季商品标识</t>
+  </si>
+  <si>
+    <t>计划到达日期</t>
+  </si>
+  <si>
+    <t>JDA、需求提报分别提供</t>
+  </si>
+  <si>
+    <t>行来源</t>
+  </si>
+  <si>
+    <t>要货数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改原因</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求提报按目前逻辑取值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>供货工厂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求提报</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+  </si>
+  <si>
+    <t>门店编码</t>
+  </si>
+  <si>
+    <t>门店名称</t>
+  </si>
+  <si>
+    <t>要货柜组编码</t>
+  </si>
+  <si>
+    <t>要货柜组名称</t>
+  </si>
+  <si>
+    <t>缺的字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求提报</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销开始时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销结束时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为"自动补货-JDA"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_TRANSLOCSCHEDARRIVALDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDARRIVDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_DEST_DESCR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统建议量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_BARCODE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_PROMO_STARTDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_PROMO_ENDDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_OUTPUT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出标示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计可售天数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则待定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_OUTSTANDINGDAYS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回传用此字段对应MD001接口的需求的计划交货日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不展示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据判断条件取值用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不展示，回传用此字段MD001接口用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不展示，回传用此字段MD001接口用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回传用此字段MD001接口用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZJDASL</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESWK</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJDQNO</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>CXJS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CXKS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>U_SSCOVER</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -357,282 +718,87 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>U_PROMO_FLAG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是促销商品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_PLANARRIVAL_TYPE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_SPEC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品规格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_UOM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本计量单位编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_UOM_DESCR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本计量单位名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_PACKNUMBER</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大箱包数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>10,2</t>
-  </si>
-  <si>
-    <t>U_MINSHIPNUMBER</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小要货量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_OHINVENTORY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前库存</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_VEHICLELOADLINE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在途库存</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_PROMO_ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际档期编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则待定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JDA提供</t>
-  </si>
-  <si>
-    <t>行号</t>
-  </si>
-  <si>
-    <t>中类名称</t>
-  </si>
-  <si>
-    <t>小类名称</t>
-  </si>
-  <si>
-    <t>需求提报</t>
-  </si>
-  <si>
-    <t>是否允许修改</t>
-  </si>
-  <si>
-    <t>商品编码</t>
-  </si>
-  <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>条形码</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>基本单位</t>
-  </si>
-  <si>
-    <t>最小要货量</t>
-  </si>
-  <si>
-    <t>箱包数</t>
-  </si>
-  <si>
-    <t>未来1周门店预估销售量</t>
-  </si>
-  <si>
-    <t>建议数量</t>
-  </si>
-  <si>
-    <t>目前库存</t>
-  </si>
-  <si>
-    <t>在途库存</t>
-  </si>
-  <si>
-    <t>预期可售天数</t>
-  </si>
-  <si>
-    <t>已提交数量</t>
-  </si>
-  <si>
-    <t>待提交数量</t>
-  </si>
-  <si>
-    <t>BW</t>
-  </si>
-  <si>
-    <t>明日促销分类</t>
-  </si>
-  <si>
-    <t>正常日均销量</t>
-  </si>
-  <si>
-    <t>促销日均销量</t>
-  </si>
-  <si>
-    <t>本期昨日销量</t>
-  </si>
-  <si>
-    <t>是否80商品</t>
-  </si>
-  <si>
-    <t>应季商品标识</t>
-  </si>
-  <si>
-    <t>计划到达日期</t>
-  </si>
-  <si>
-    <t>JDA、需求提报分别提供</t>
-  </si>
-  <si>
-    <t>行来源</t>
-  </si>
-  <si>
-    <t>要货数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改原因</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求提报按目前逻辑取值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>供货工厂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求提报</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号</t>
-  </si>
-  <si>
-    <t>门店编码</t>
-  </si>
-  <si>
-    <t>门店名称</t>
-  </si>
-  <si>
-    <t>要货柜组编码</t>
-  </si>
-  <si>
-    <t>要货柜组名称</t>
-  </si>
-  <si>
-    <t>缺的字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求提报</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>促销开始时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>促销结束时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流模式=直送时取中转DC的值到此字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流模式=配送时取中转DC的值到此字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为"自动补货-JDA"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>要货柜组编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>行号+P4:AA6P2:AAS5:AA6</t>
+    <t>开发确认原来是否有此字段？没有就需要新增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本计量单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇总交货日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不展示，回传用此字段MD001接口用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，需要开发确认一下目前传的是代码还是文本？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码取这个字段的值，文本取基本单位</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发确认一下原来是否已有此字段？是否是字段LIFNR？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据MD210中的物流模式判断：
+10配送取SOURCE
+20直通外采、21直通转运、30越库外采、31越库转运取U_TRANSLOC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据MD210中的物流模式判断：
+20直通外采、21直通转运、30越库外采、31越库转运、40直送取SOURCE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据MD210中的物流模式判断：
+20直通外采、30越库外采取U_TRANSLOCSCHEDARRIVALDATE
+40直送取SCHEDARRIVDATE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -734,8 +900,92 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,8 +1058,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -873,55 +1153,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,13 +1166,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -948,24 +1205,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -975,55 +1215,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1047,7 +1242,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1087,18 +1282,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1129,89 +1312,205 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1240,21 +1539,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準_Meiji_DataMap_v7211_DP_0403" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="標準_Meiji_DataMap_v7211_DP_0403" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 9" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="常规 2 2" xfId="10"/>
+    <cellStyle name="常规 3" xfId="5"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 5" xfId="7"/>
+    <cellStyle name="常规 9" xfId="8"/>
+    <cellStyle name="超链接 2" xfId="9"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1289,11 +1601,50 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>878417</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>105832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1915584</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>69964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="79876" r="1469"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15800917" y="20002499"/>
+          <a:ext cx="2815167" cy="1519882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1356,7 +1707,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1389,26 +1740,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1441,23 +1775,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1633,206 +1950,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D3" sqref="D3:O12"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="AN40" sqref="AN40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="47.5703125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="1.140625" style="12" customWidth="1"/>
-    <col min="12" max="13" width="0.85546875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="0.5703125" style="12" customWidth="1"/>
-    <col min="15" max="16" width="0.42578125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="0.5703125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="0.42578125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="0.28515625" style="12" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="21" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="0.42578125" style="21" customWidth="1"/>
-    <col min="22" max="22" width="0.140625" style="21" customWidth="1"/>
-    <col min="23" max="23" width="0.5703125" style="21" customWidth="1"/>
-    <col min="24" max="24" width="0.7109375" style="21" customWidth="1"/>
-    <col min="25" max="25" width="0.7109375" style="24" customWidth="1"/>
-    <col min="26" max="26" width="17.140625" style="24" customWidth="1"/>
-    <col min="27" max="27" width="27.5703125" style="24" customWidth="1"/>
-    <col min="28" max="28" width="17.85546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="22" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="34" width="8.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="14.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="36" max="38" width="8.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="34.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="12" customWidth="1"/>
+    <col min="12" max="19" width="7" style="12" hidden="1" customWidth="1"/>
+    <col min="20" max="24" width="7" style="17" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" style="20" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="17.140625" style="20" customWidth="1"/>
+    <col min="28" max="28" width="27.85546875" style="29" customWidth="1"/>
+    <col min="29" max="29" width="26.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="22" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="35" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="37" max="39" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="39.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="49.28515625" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:41" ht="22.5">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="97"/>
+      <c r="L1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64" t="s">
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="65"/>
-      <c r="AA1" s="34" t="s">
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="101"/>
+      <c r="Z1" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="AC1" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD1" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE1" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF1" s="45" t="s">
-        <v>149</v>
+      <c r="AE1" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF1" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG1" s="65" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="24" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:41" s="20" customFormat="1" ht="65.25" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE2" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF2" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ2" s="35" t="s">
-        <v>143</v>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB2" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD2" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF2" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG2" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK2" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO2" s="66" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="27" hidden="1">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1871,32 +2199,40 @@
       <c r="V3" s="7"/>
       <c r="W3" s="8"/>
       <c r="X3" s="4"/>
-      <c r="Z3" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA3" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC3" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD3" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE3" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF3" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI3" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ3" s="36" t="s">
-        <v>144</v>
-      </c>
+      <c r="Z3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK3" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
     </row>
-    <row r="4" spans="1:36" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" ht="34.5" hidden="1">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -1933,32 +2269,40 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="4"/>
-      <c r="Z4" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA4" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC4" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD4" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE4" s="46" t="s">
+      <c r="Z4" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="AF4" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI4" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ4" s="36" t="s">
-        <v>145</v>
-      </c>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK4" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
     </row>
-    <row r="5" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="34.5" hidden="1">
       <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
@@ -1995,32 +2339,40 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="4"/>
-      <c r="Z5" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA5" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC5" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD5" s="43" t="s">
+      <c r="Z5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AE5" s="46" t="s">
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF5" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK5" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="AF5" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI5" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ5" s="36" t="s">
-        <v>146</v>
-      </c>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
     </row>
-    <row r="6" spans="1:36" ht="54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="34.5" hidden="1">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2059,33 +2411,40 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="4"/>
-      <c r="Z6" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA6" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD6" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE6" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF6" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI6" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ6" s="36" t="s">
-        <v>147</v>
-      </c>
+      <c r="Z6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE6" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF6" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG6" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK6" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
     </row>
-    <row r="7" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" hidden="1">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
@@ -2122,24 +2481,30 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="4"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="38"/>
-      <c r="AE7" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF7" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ7" s="27" t="s">
-        <v>109</v>
+      <c r="Z7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="34.5">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
@@ -2176,31 +2541,38 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="4"/>
-      <c r="Z8" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA8" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB8" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF8" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI8" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ8" s="28" t="s">
-        <v>110</v>
-      </c>
+      <c r="Z8" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC8" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG8" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
     </row>
-    <row r="9" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="34.5" hidden="1">
       <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
@@ -2237,22 +2609,38 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="4"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="38"/>
-      <c r="AE9" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF9" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI9" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ9" s="27" t="s">
-        <v>111</v>
+      <c r="Z9" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG9" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK9" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="34.5" hidden="1">
       <c r="A10" s="9" t="s">
         <v>48</v>
       </c>
@@ -2289,28 +2677,36 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="4"/>
-      <c r="Z10" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA10" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="38"/>
-      <c r="AE10" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF10" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI10" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ10" s="28" t="s">
-        <v>113</v>
-      </c>
+      <c r="Z10" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG10" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
     </row>
-    <row r="11" spans="1:36" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" ht="34.5" hidden="1">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -2349,28 +2745,36 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="4"/>
-      <c r="Z11" s="25" t="s">
+      <c r="Z11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="AA11" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="38"/>
-      <c r="AE11" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF11" s="51" t="s">
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="AI11" s="25" t="s">
+      <c r="AG11" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK11" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="AJ11" s="27" t="s">
-        <v>114</v>
-      </c>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
     </row>
-    <row r="12" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="34.5" hidden="1">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -2407,26 +2811,36 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="4"/>
-      <c r="Z12" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA12" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="38"/>
-      <c r="AI12" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ12" s="27" t="s">
-        <v>115</v>
-      </c>
+      <c r="Z12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK12" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:41" hidden="1">
+      <c r="A13" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="3"/>
@@ -2461,22 +2875,26 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="4"/>
-      <c r="Z13" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA13" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="38"/>
-      <c r="AI13" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ13" s="27" t="s">
-        <v>116</v>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" hidden="1">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -2515,65 +2933,94 @@
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="10"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="38"/>
-      <c r="AI14" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ14" s="27" t="s">
-        <v>117</v>
-      </c>
+      <c r="Z14" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK14" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
     </row>
-    <row r="15" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:41" ht="34.5" hidden="1">
+      <c r="A15" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="43"/>
+      <c r="J15" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="4"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="38"/>
-      <c r="AI15" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ15" s="27" t="s">
-        <v>118</v>
-      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK15" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
     </row>
-    <row r="16" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:41" ht="34.5">
+      <c r="A16" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
@@ -2603,36 +3050,47 @@
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="10"/>
-      <c r="Z16" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA16" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB16" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC16" s="38"/>
-      <c r="AI16" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ16" s="27" t="s">
-        <v>119</v>
+      <c r="Z16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC16" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK16" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AO16" s="21" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41">
       <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2640,7 +3098,7 @@
         <v>32</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>34</v>
@@ -2659,29 +3117,39 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="4"/>
-      <c r="Z17" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA17" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB17" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC17" s="38"/>
-      <c r="AI17" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ17" s="27" t="s">
-        <v>120</v>
-      </c>
+      <c r="Z17" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC17" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK17" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
     </row>
-    <row r="18" spans="1:36" s="12" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:41" s="12" customFormat="1" ht="69" hidden="1">
+      <c r="A18" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
@@ -2696,7 +3164,7 @@
         <v>52</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>34</v>
@@ -2715,29 +3183,36 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ18" s="28" t="s">
-        <v>121</v>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK18" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>73</v>
+    <row r="19" spans="1:41" ht="34.5" hidden="1">
+      <c r="A19" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -2750,7 +3225,7 @@
         <v>52</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>34</v>
@@ -2769,36 +3244,52 @@
       <c r="V19" s="7"/>
       <c r="W19" s="8"/>
       <c r="X19" s="4"/>
-      <c r="AI19" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ19" s="27" t="s">
-        <v>122</v>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="44.25" customHeight="1">
       <c r="A20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>34</v>
@@ -2817,132 +3308,163 @@
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="10"/>
-      <c r="Z20" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA20" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB20" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI20" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ20" s="27" t="s">
-        <v>138</v>
-      </c>
+      <c r="Z20" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC20" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK20" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
     </row>
-    <row r="21" spans="1:36" s="17" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:41" s="57" customFormat="1" ht="103.5" hidden="1">
+      <c r="A21" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="43">
+        <v>1</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK21" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
+    </row>
+    <row r="22" spans="1:41" s="58" customFormat="1" ht="34.5" hidden="1">
+      <c r="A22" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="43">
+        <v>3</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK22" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+    </row>
+    <row r="23" spans="1:41" ht="34.5">
+      <c r="A23" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>80</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ21" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="AC22" s="17"/>
-      <c r="AI22" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ22" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2968,21 +3490,41 @@
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="10"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ23" s="27" t="s">
-        <v>124</v>
+      <c r="Z23" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC23" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK23" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="34.5" hidden="1">
       <c r="A24" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -2997,7 +3539,7 @@
         <v>32</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>34</v>
@@ -3016,28 +3558,37 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="4"/>
-      <c r="Z24" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA24" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AI24" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ24" s="29" t="s">
-        <v>125</v>
-      </c>
+      <c r="Z24" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK24" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
     </row>
-    <row r="25" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="34.5" hidden="1">
       <c r="A25" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
@@ -3069,25 +3620,37 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="4"/>
-      <c r="Z25" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA25" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI25" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ25" s="27" t="s">
-        <v>126</v>
-      </c>
+      <c r="Z25" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK25" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
     </row>
-    <row r="26" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="51.75" hidden="1">
       <c r="A26" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
@@ -3119,23 +3682,39 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="4"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="27"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ26" s="27" t="s">
-        <v>127</v>
+      <c r="Z26" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK26" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="90" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="34.5" hidden="1">
       <c r="A27" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
@@ -3167,35 +3746,44 @@
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="4"/>
-      <c r="Z27" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA27" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AI27" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ27" s="30" t="s">
-        <v>129</v>
-      </c>
+      <c r="Z27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK27" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
     </row>
-    <row r="28" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>95</v>
+    <row r="28" spans="1:41" ht="34.5" hidden="1">
+      <c r="A28" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3220,32 +3808,44 @@
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="4"/>
-      <c r="Z28" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA28" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI28" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ28" s="27" t="s">
-        <v>130</v>
-      </c>
+      <c r="Z28" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK28" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
     </row>
-    <row r="29" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>99</v>
+    <row r="29" spans="1:41" ht="34.5" hidden="1">
+      <c r="A29" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3270,32 +3870,44 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="4"/>
-      <c r="Z29" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA29" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI29" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ29" s="27" t="s">
-        <v>131</v>
-      </c>
+      <c r="Z29" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK29" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
     </row>
-    <row r="30" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="34.5" hidden="1">
       <c r="A30" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3320,32 +3932,44 @@
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
       <c r="X30" s="4"/>
-      <c r="Z30" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA30" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI30" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ30" s="27" t="s">
-        <v>132</v>
-      </c>
+      <c r="Z30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK30" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
     </row>
-    <row r="31" spans="1:36" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="34.5" hidden="1">
       <c r="A31" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3370,31 +3994,43 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="4"/>
-      <c r="Z31" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA31" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI31" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ31" s="27" t="s">
-        <v>133</v>
-      </c>
+      <c r="Z31" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK31" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
     </row>
-    <row r="32" spans="1:36" s="12" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>106</v>
+    <row r="32" spans="1:41" s="12" customFormat="1" ht="34.5">
+      <c r="A32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="10">
         <v>50</v>
       </c>
       <c r="F32" s="10"/>
@@ -3402,8 +4038,8 @@
       <c r="H32" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>107</v>
+      <c r="I32" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>34</v>
@@ -3422,161 +4058,485 @@
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ32" s="27" t="s">
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA32" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB32" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="22" t="s">
         <v>134</v>
       </c>
+      <c r="AK32" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="Z33" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA33" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB33" s="55" t="s">
+    <row r="33" spans="1:41" ht="34.5">
+      <c r="A33" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="Z33" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA33" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB33" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC33" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK33" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" ht="34.5">
+      <c r="A34" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="Z34" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA34" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB34" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC34" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK34" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" ht="33" hidden="1">
+      <c r="A35" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="34">
+        <v>50</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z35" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK35" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+    </row>
+    <row r="36" spans="1:41" hidden="1">
+      <c r="A36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="Z36" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA36" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB36" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" hidden="1">
+      <c r="A37" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AC33" s="12"/>
-      <c r="AI33" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ33" s="28" t="s">
+      <c r="B37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="3">
+        <v>50</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="Z37" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+    </row>
+    <row r="38" spans="1:41" hidden="1">
+      <c r="A38" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="Z38" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+    </row>
+    <row r="39" spans="1:41" ht="69">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="Z39" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA39" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB39" s="33" t="s">
         <v>135</v>
       </c>
+      <c r="AC39" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO39" s="10" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="Z34" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA34" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB34" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI34" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ34" s="27" t="s">
-        <v>137</v>
+    <row r="40" spans="1:41" ht="51.75">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="Z40" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC40" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO40" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="33" x14ac:dyDescent="0.3">
-      <c r="Z35" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA35" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI35" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ35" s="31" t="s">
-        <v>141</v>
+    <row r="41" spans="1:41" ht="87" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="Z41" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA41" s="88"/>
+      <c r="AB41" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC41" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO41" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="Z36" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA36" s="29" t="s">
-        <v>122</v>
-      </c>
+    <row r="48" spans="1:41">
+      <c r="AC48" s="12"/>
     </row>
-    <row r="37" spans="1:39" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Z37" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA37" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
-      <c r="AI37" s="12"/>
-      <c r="AJ37" s="12"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="Z38" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA38" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB38" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AM38" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="Z39" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA39" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB39" s="55"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="AA40" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM40" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="AB48" s="12"/>
-    </row>
-    <row r="49" spans="29:29" x14ac:dyDescent="0.3">
-      <c r="AC49" s="12"/>
+    <row r="49" spans="30:30">
+      <c r="AD49" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <autoFilter ref="A2:AN40">
+    <filterColumn colId="28">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:S1"/>
     <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:J2">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>#REF!="N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:Q2">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:Q2">
+  <conditionalFormatting sqref="T2">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
+  <conditionalFormatting sqref="R2:S2">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S2">
+  <conditionalFormatting sqref="AB2">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>#REF!="N"</formula>
     </cfRule>
@@ -3587,5 +4547,6 @@
     <oddHeader>&amp;RPrinted: &amp;D</oddHeader>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>